--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,10 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>head.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOUL_NAME_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,6 +871,14 @@
   </si>
   <si>
     <t>SOUL_DESC_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk_human,charactor/face.png,charactor/body.png,charactor/arm.png,charactor/hand.png,charactor/leg.png,charactor/foot.png,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor2/foot.png,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,11 +1254,12 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="125.375" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
@@ -1322,16 +1327,16 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1375,16 +1380,16 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>0</v>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1351,7 +1351,7 @@
         <v>3000</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -1404,7 +1404,7 @@
         <v>3000</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>2</v>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -531,51 +531,6 @@
           </rPr>
           <t xml:space="preserve">7
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王朋</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>稀有度，决定升级经验。</t>
         </r>
       </text>
     </comment>
@@ -620,101 +575,146 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>元素类型，决定防御类型。
-金</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-木</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-水</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-火</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-土</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4</t>
+          <t>稀有度，决定升级经验。</t>
         </r>
       </text>
     </comment>
     <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>元素类型，决定防御类型。
+金</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+木</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+火</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+土</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -879,6 +879,10 @@
   </si>
   <si>
     <t>sk_human,charactor2/face.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor2/foot.png,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1263,10 +1267,11 @@
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,40 +1291,43 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1339,7 +1347,7 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1348,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>3000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1366,13 +1374,16 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1401,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>3000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1419,9 +1430,12 @@
         <v>1</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0</v>
       </c>
     </row>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -389,7 +389,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">0
+          <t xml:space="preserve">1
 </t>
         </r>
         <r>
@@ -409,7 +409,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">2
 </t>
         </r>
         <r>
@@ -429,7 +429,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">2
+          <t xml:space="preserve">3
 </t>
         </r>
         <r>
@@ -449,7 +449,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">3
+          <t xml:space="preserve">4
 </t>
         </r>
         <r>
@@ -469,7 +469,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </r>
         <r>
@@ -489,7 +489,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">6
 </t>
         </r>
         <r>
@@ -509,7 +509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">6
+          <t xml:space="preserve">7
 </t>
         </r>
         <r>
@@ -529,7 +529,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">7
+          <t xml:space="preserve">8
 </t>
         </r>
       </text>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,6 +883,22 @@
   </si>
   <si>
     <t>copper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fathertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatherid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mothertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motherid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1271,7 +1287,7 @@
     <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,8 +1342,20 @@
       <c r="R1" t="s">
         <v>15</v>
       </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1350,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1382,8 +1410,14 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1406,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1437,6 +1471,15 @@
       </c>
       <c r="R3">
         <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -886,19 +886,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fathertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fatherid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mothertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>motherid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatherrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motherrace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1343,16 +1343,16 @@
         <v>15</v>
       </c>
       <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
         <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1413,8 +1413,14 @@
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
         <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1470,6 +1476,9 @@
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -21,7 +21,52 @@
     <author>王朋</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是否能通过变异获得</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,192 +389,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王朋</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>种族
-人类</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>矮人</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>精灵</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>兽人</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>亡灵</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>龙族</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>恶魔</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">7
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>神族</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">8
 </t>
         </r>
       </text>
@@ -561,21 +420,162 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>稀有度，决定升级经验。</t>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>种族
+人类</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>矮人</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>精灵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>兽人</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>亡灵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>龙族</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>恶魔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>神族</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8
+</t>
         </r>
       </text>
     </comment>
@@ -620,101 +620,146 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>元素类型，决定防御类型。
-金</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-木</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-水</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-火</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-土</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4</t>
+          <t>稀有度，决定升级经验。</t>
         </r>
       </text>
     </comment>
     <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>元素类型，决定防御类型。
+金</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+木</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+火</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+土</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -784,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,6 +944,10 @@
   </si>
   <si>
     <t>motherrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canmutate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,23 +1320,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="125.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.375" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1295,88 +1344,91 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -1384,20 +1436,20 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
       <c r="O2">
         <v>1</v>
       </c>
@@ -1405,46 +1457,49 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -1452,20 +1507,20 @@
         <v>1</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
         <v>1</v>
       </c>
@@ -1473,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1482,12 +1537,15 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
     </row>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -919,14 +919,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sk_human,charactor/face.png,charactor/body.png,charactor/arm.png,charactor/hand.png,charactor/leg.png,charactor/foot.png,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor2/foot.png,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -948,6 +940,14 @@
   </si>
   <si>
     <t>canmutate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk_human,charactor/face.png,charactor/head.png,charactor/body.png,charactor/arm.png,charactor/hand.png,charactor/arm.png,charactor/hand.png,charactor/leg.png,charactor/leg.png,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor2/leg.png,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,9 +1022,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,7 +1326,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1344,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1359,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1395,16 +1398,16 @@
         <v>15</v>
       </c>
       <c r="T1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1418,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" ht="27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1488,8 +1491,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -424,8 +424,28 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>种族
-人类</t>
+          <t xml:space="preserve">种族
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>野兽</t>
         </r>
         <r>
           <rPr>
@@ -445,7 +465,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>矮人</t>
+          <t>人类</t>
         </r>
         <r>
           <rPr>
@@ -465,7 +485,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>精灵</t>
+          <t>兽人</t>
         </r>
         <r>
           <rPr>
@@ -485,7 +505,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>兽人</t>
+          <t>精灵</t>
         </r>
         <r>
           <rPr>
@@ -829,7 +849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -903,22 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOUL_NAME_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -949,6 +953,149 @@
   <si>
     <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor2/leg.png,</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_2001</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_2001</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_2002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_2002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_3001</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_3001</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_3002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_3002</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_4001</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_4001</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_4002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_4002</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_5001</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_5001</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_5002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_5002</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor3/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor4/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor5/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor6/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor7/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor8/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor9/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor10/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor11/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor12/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor13/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor14/leg.png,</t>
+  </si>
+  <si>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor15/leg.png,</t>
   </si>
 </sst>
 </file>
@@ -1323,14 +1470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="125.375" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -1347,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1362,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1398,21 +1546,21 @@
         <v>15</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1421,16 +1569,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1448,19 +1596,19 @@
         <v>3000</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1483,7 +1631,7 @@
     </row>
     <row r="3" spans="1:23" ht="27">
       <c r="A3">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1492,16 +1640,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1519,37 +1667,960 @@
         <v>3000</v>
       </c>
       <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="27">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3000</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>5</v>
       </c>
-      <c r="N3">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="27">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3000</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="27">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3000</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="27">
+      <c r="A7">
+        <v>2002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>3000</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>40</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="27">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>3000</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="27">
+      <c r="A9">
+        <v>3001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>3000</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="27">
+      <c r="A10">
+        <v>3002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>3000</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="27">
+      <c r="A11">
+        <v>4000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3000</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="27">
+      <c r="A12">
+        <v>4001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3000</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="27">
+      <c r="A13">
+        <v>4002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3000</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>40</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="27">
+      <c r="A14">
+        <v>5000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3000</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>40</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="27">
+      <c r="A15">
+        <v>5001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>3000</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <v>40</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="27">
+      <c r="A16">
+        <v>5002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>3000</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M2">
         <v>50</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="M3">
         <v>50</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M4">
         <v>50</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="M5">
         <v>50</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="M7">
         <v>50</v>

--- a/soulbase.xlsx
+++ b/soulbase.xlsx
@@ -849,7 +849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1059,43 +1059,8 @@
     <t>SOUL_DESC_5002</t>
   </si>
   <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor3/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor4/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor5/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor6/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor7/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor8/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor9/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor10/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor11/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor12/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor13/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor14/leg.png,</t>
-  </si>
-  <si>
-    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor15/leg.png,</t>
+    <t>sk_human,charactor2/face.png,charactor2/head.png,charactor2/body.png,charactor2/arm.png,charactor2/hand.png,charactor2/arm.png,charactor2/hand.png,charactor2/leg.png,charactor2/leg.png,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1472,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1782,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1924,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1995,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2019,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3000</v>
+        <v>6001</v>
       </c>
       <c r="M8">
         <v>50</v>
@@ -2066,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2090,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3000</v>
+        <v>6002</v>
       </c>
       <c r="M9">
         <v>50</v>
@@ -2137,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2161,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3000</v>
+        <v>4001</v>
       </c>
       <c r="M10">
         <v>50</v>
@@ -2208,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2232,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3000</v>
+        <v>3004</v>
       </c>
       <c r="M11">
         <v>50</v>
@@ -2279,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2303,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3000</v>
+        <v>6003</v>
       </c>
       <c r="M12">
         <v>50</v>
@@ -2350,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2374,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3000</v>
+        <v>3005</v>
       </c>
       <c r="M13">
         <v>50</v>
@@ -2421,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2445,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3000</v>
+        <v>3007</v>
       </c>
       <c r="M14">
         <v>50</v>
@@ -2492,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2516,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3000</v>
+        <v>3006</v>
       </c>
       <c r="M15">
         <v>50</v>
@@ -2563,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2587,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3000</v>
+        <v>6004</v>
       </c>
       <c r="M16">
         <v>50</v>
